--- a/biology/Zoologie/Gloydius_saxatilis/Gloydius_saxatilis.xlsx
+++ b/biology/Zoologie/Gloydius_saxatilis/Gloydius_saxatilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gloydius saxatilis est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gloydius saxatilis est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Corée du Nord ;
 en Corée du Sud ;
 dans le nord-est de la Chine ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux[1]. Il est parfois appelé "crotale sept-étapes", du fait de son puissant venin qui immobilise sa victime en sept phases successives.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux. Il est parfois appelé "crotale sept-étapes", du fait de son puissant venin qui immobilise sa victime en sept phases successives.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Le Gloydius saxatilis et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serpent fuit les humains à moins d'être provoqué. Son venin est étudié par l'industrie pharmaceutique. En 2018, un Gloydius sawatilis qui s'était échappé d'un laboratoire en Belgique a été tué à coup de pelles par un riverain[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serpent fuit les humains à moins d'être provoqué. Son venin est étudié par l'industrie pharmaceutique. En 2018, un Gloydius sawatilis qui s'était échappé d'un laboratoire en Belgique a été tué à coup de pelles par un riverain.
 Il est ovovivipare. Le Gloydius saxatilis donne naissance à une dizaine de petits par portée.
 </t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Gloydius saxatilis saxatilis (Emelianov, 1937)
 Gloydius saxatilis changdaoensis Li, 1999</t>
         </is>
@@ -640,7 +660,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Emelianov, 1937 : Bulletin of the Far Eastern Branch of the Russian Academy of Sciences, vol. 24, p. 19-40.
 Li, 1999 : Infraspecific classification of two species of Gloydius (Serpentes: Crotalinae). Acta Zootaxonomica Sinica, vol. 24, no 4, p. 454-460.</t>
